--- a/Documentation/Sprint_Sheet.xlsx
+++ b/Documentation/Sprint_Sheet.xlsx
@@ -243,13 +243,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,12 +315,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -341,22 +335,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -371,10 +349,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,8 +372,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -409,32 +395,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,8 +433,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,8 +471,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,14 +481,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,31 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,25 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,37 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +591,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,37 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,21 +1071,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1126,21 +1105,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1157,15 +1121,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1174,43 +1129,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,110 +1213,110 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,17 +1420,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1444,9 +1435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1471,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3637,10 +3625,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4244,8 +4232,8 @@
   <sheetPr/>
   <dimension ref="B1:AD1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H272" sqref="H272"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="N198" workbookViewId="0">
+      <selection activeCell="Y232" sqref="Y232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2867647058824" defaultRowHeight="15" customHeight="1"/>
@@ -5489,7 +5477,7 @@
     <row r="77" ht="15.75" customHeight="1" spans="12:27">
       <c r="L77" s="31"/>
       <c r="Q77" s="31"/>
-      <c r="V77" s="44"/>
+      <c r="V77" s="43"/>
       <c r="AA77" s="31"/>
     </row>
     <row r="78" ht="15.75" customHeight="1" spans="12:27">
@@ -5513,11 +5501,11 @@
     <row r="81" ht="15.75" customHeight="1" spans="12:27">
       <c r="L81" s="30"/>
       <c r="Q81" s="31"/>
-      <c r="V81" s="44"/>
+      <c r="V81" s="43"/>
       <c r="AA81" s="31"/>
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="12:27">
-      <c r="L82" s="44"/>
+      <c r="L82" s="43"/>
       <c r="Q82" s="30"/>
       <c r="V82" s="30"/>
       <c r="AA82" s="30"/>
@@ -5548,7 +5536,7 @@
     <row r="87" ht="15.75" customHeight="1" spans="12:27">
       <c r="L87" s="30"/>
       <c r="Q87" s="30"/>
-      <c r="V87" s="44"/>
+      <c r="V87" s="43"/>
       <c r="AA87" s="31"/>
     </row>
     <row r="88" ht="15.75" customHeight="1" spans="12:27">
@@ -5571,7 +5559,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1"/>
     <row r="92" ht="15.75" customHeight="1" spans="7:7">
-      <c r="G92" s="43"/>
+      <c r="G92" s="42"/>
     </row>
     <row r="93" ht="15.75" customHeight="1"/>
     <row r="94" ht="15.75" customHeight="1"/>
@@ -5591,46 +5579,46 @@
     <row r="108" ht="15.75" customHeight="1"/>
     <row r="109" ht="15.75" customHeight="1"/>
     <row r="110" ht="15.75" customHeight="1" spans="12:30">
-      <c r="L110" s="45"/>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46"/>
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="46"/>
-      <c r="R110" s="46"/>
-      <c r="S110" s="46"/>
-      <c r="T110" s="46"/>
-      <c r="U110" s="46"/>
-      <c r="V110" s="46"/>
-      <c r="W110" s="46"/>
-      <c r="X110" s="46"/>
-      <c r="Y110" s="46"/>
-      <c r="Z110" s="46"/>
-      <c r="AA110" s="46"/>
-      <c r="AB110" s="46"/>
-      <c r="AC110" s="46"/>
-      <c r="AD110" s="46"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="45"/>
+      <c r="Q110" s="45"/>
+      <c r="R110" s="45"/>
+      <c r="S110" s="45"/>
+      <c r="T110" s="45"/>
+      <c r="U110" s="45"/>
+      <c r="V110" s="45"/>
+      <c r="W110" s="45"/>
+      <c r="X110" s="45"/>
+      <c r="Y110" s="45"/>
+      <c r="Z110" s="45"/>
+      <c r="AA110" s="45"/>
+      <c r="AB110" s="45"/>
+      <c r="AC110" s="45"/>
+      <c r="AD110" s="45"/>
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="12:30">
-      <c r="L111" s="46"/>
-      <c r="M111" s="46"/>
-      <c r="N111" s="46"/>
-      <c r="O111" s="46"/>
-      <c r="P111" s="46"/>
-      <c r="Q111" s="46"/>
-      <c r="R111" s="46"/>
-      <c r="S111" s="46"/>
-      <c r="T111" s="46"/>
-      <c r="U111" s="46"/>
-      <c r="V111" s="46"/>
-      <c r="W111" s="46"/>
-      <c r="X111" s="46"/>
-      <c r="Y111" s="46"/>
-      <c r="Z111" s="46"/>
-      <c r="AA111" s="46"/>
-      <c r="AB111" s="46"/>
-      <c r="AC111" s="46"/>
-      <c r="AD111" s="46"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="45"/>
+      <c r="N111" s="45"/>
+      <c r="O111" s="45"/>
+      <c r="P111" s="45"/>
+      <c r="Q111" s="45"/>
+      <c r="R111" s="45"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="45"/>
+      <c r="U111" s="45"/>
+      <c r="V111" s="45"/>
+      <c r="W111" s="45"/>
+      <c r="X111" s="45"/>
+      <c r="Y111" s="45"/>
+      <c r="Z111" s="45"/>
+      <c r="AA111" s="45"/>
+      <c r="AB111" s="45"/>
+      <c r="AC111" s="45"/>
+      <c r="AD111" s="45"/>
     </row>
     <row r="112" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
@@ -5854,7 +5842,7 @@
       <c r="B124" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C124" s="41" t="s">
+      <c r="C124" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D124" s="13" t="s">
@@ -5941,7 +5929,7 @@
       <c r="AA125" s="30"/>
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B126" s="42" t="s">
+      <c r="B126" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C126" s="13" t="s">
@@ -6517,15 +6505,15 @@
       <c r="S180" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="T180" s="56"/>
+      <c r="T180" s="54"/>
       <c r="V180" s="30"/>
       <c r="AA180" s="30"/>
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B181" s="47" t="s">
+      <c r="B181" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C181" s="48" t="s">
+      <c r="C181" s="47" t="s">
         <v>54</v>
       </c>
       <c r="D181" s="11" t="s">
@@ -6568,15 +6556,15 @@
       <c r="S181" s="34">
         <v>1</v>
       </c>
-      <c r="T181" s="56"/>
+      <c r="T181" s="54"/>
       <c r="V181" s="31"/>
       <c r="AA181" s="31"/>
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B182" s="49" t="s">
+      <c r="B182" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C182" s="50" t="s">
+      <c r="C182" s="48" t="s">
         <v>56</v>
       </c>
       <c r="D182" s="13" t="s">
@@ -6613,7 +6601,7 @@
       </c>
       <c r="R182" s="13"/>
       <c r="S182" s="35"/>
-      <c r="T182" s="56"/>
+      <c r="T182" s="54"/>
       <c r="V182" s="30"/>
       <c r="AA182" s="30"/>
     </row>
@@ -6654,7 +6642,7 @@
       <c r="Q183" s="13"/>
       <c r="R183" s="13"/>
       <c r="S183" s="35"/>
-      <c r="T183" s="56"/>
+      <c r="T183" s="54"/>
       <c r="V183" s="30"/>
       <c r="AA183" s="30"/>
     </row>
@@ -6671,31 +6659,31 @@
       <c r="E184" s="13">
         <v>9</v>
       </c>
-      <c r="F184" s="55"/>
-      <c r="G184" s="55">
+      <c r="F184" s="53"/>
+      <c r="G184" s="53">
         <v>1</v>
       </c>
-      <c r="H184" s="55"/>
-      <c r="I184" s="55">
+      <c r="H184" s="53"/>
+      <c r="I184" s="53">
         <v>1</v>
       </c>
-      <c r="J184" s="55">
+      <c r="J184" s="53">
         <v>3</v>
       </c>
-      <c r="K184" s="55"/>
-      <c r="L184" s="55"/>
-      <c r="M184" s="55">
+      <c r="K184" s="53"/>
+      <c r="L184" s="53"/>
+      <c r="M184" s="53">
         <v>2</v>
       </c>
-      <c r="N184" s="55"/>
-      <c r="O184" s="55">
+      <c r="N184" s="53"/>
+      <c r="O184" s="53">
         <v>2</v>
       </c>
-      <c r="P184" s="55"/>
-      <c r="Q184" s="55"/>
-      <c r="R184" s="55"/>
+      <c r="P184" s="53"/>
+      <c r="Q184" s="53"/>
+      <c r="R184" s="53"/>
       <c r="S184" s="35"/>
-      <c r="T184" s="56"/>
+      <c r="T184" s="54"/>
       <c r="V184" s="30"/>
       <c r="AA184" s="30"/>
     </row>
@@ -6718,7 +6706,7 @@
       <c r="Q185" s="16"/>
       <c r="R185" s="16"/>
       <c r="S185" s="36"/>
-      <c r="T185" s="56"/>
+      <c r="T185" s="54"/>
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="2:20">
       <c r="B186" s="17" t="s">
@@ -6786,7 +6774,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T186" s="56"/>
+      <c r="T186" s="54"/>
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="2:20">
       <c r="B187" s="20" t="s">
@@ -6854,768 +6842,768 @@
         <f>$E$187-($E$187/14*14)</f>
         <v>0</v>
       </c>
-      <c r="T187" s="56"/>
+      <c r="T187" s="54"/>
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="2:20">
-      <c r="B188" s="51"/>
-      <c r="C188" s="51"/>
-      <c r="D188" s="51"/>
-      <c r="E188" s="51"/>
-      <c r="F188" s="51"/>
-      <c r="G188" s="51"/>
-      <c r="H188" s="51"/>
-      <c r="I188" s="51"/>
-      <c r="J188" s="51"/>
-      <c r="K188" s="51"/>
-      <c r="L188" s="51"/>
-      <c r="M188" s="51"/>
-      <c r="N188" s="51"/>
-      <c r="O188" s="51"/>
-      <c r="P188" s="51"/>
-      <c r="Q188" s="51"/>
-      <c r="R188" s="51"/>
-      <c r="S188" s="51"/>
-      <c r="T188" s="56"/>
+      <c r="B188" s="49"/>
+      <c r="C188" s="49"/>
+      <c r="D188" s="49"/>
+      <c r="E188" s="49"/>
+      <c r="F188" s="49"/>
+      <c r="G188" s="49"/>
+      <c r="H188" s="49"/>
+      <c r="I188" s="49"/>
+      <c r="J188" s="49"/>
+      <c r="K188" s="49"/>
+      <c r="L188" s="49"/>
+      <c r="M188" s="49"/>
+      <c r="N188" s="49"/>
+      <c r="O188" s="49"/>
+      <c r="P188" s="49"/>
+      <c r="Q188" s="49"/>
+      <c r="R188" s="49"/>
+      <c r="S188" s="49"/>
+      <c r="T188" s="54"/>
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="2:20">
-      <c r="B189" s="51"/>
-      <c r="C189" s="51"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="51"/>
-      <c r="F189" s="51"/>
-      <c r="G189" s="51"/>
-      <c r="H189" s="51"/>
-      <c r="I189" s="51"/>
-      <c r="J189" s="51"/>
-      <c r="K189" s="51"/>
-      <c r="L189" s="51"/>
-      <c r="M189" s="51"/>
-      <c r="N189" s="51"/>
-      <c r="O189" s="51"/>
-      <c r="P189" s="51"/>
-      <c r="Q189" s="51"/>
-      <c r="R189" s="51"/>
-      <c r="S189" s="51"/>
-      <c r="T189" s="56"/>
+      <c r="B189" s="49"/>
+      <c r="C189" s="49"/>
+      <c r="D189" s="49"/>
+      <c r="E189" s="49"/>
+      <c r="F189" s="49"/>
+      <c r="G189" s="49"/>
+      <c r="H189" s="49"/>
+      <c r="I189" s="49"/>
+      <c r="J189" s="49"/>
+      <c r="K189" s="49"/>
+      <c r="L189" s="49"/>
+      <c r="M189" s="49"/>
+      <c r="N189" s="49"/>
+      <c r="O189" s="49"/>
+      <c r="P189" s="49"/>
+      <c r="Q189" s="49"/>
+      <c r="R189" s="49"/>
+      <c r="S189" s="49"/>
+      <c r="T189" s="54"/>
     </row>
     <row r="190" ht="34.5" customHeight="1" spans="2:20">
-      <c r="B190" s="52"/>
-      <c r="C190" s="53"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="51"/>
-      <c r="F190" s="51"/>
-      <c r="G190" s="51"/>
-      <c r="H190" s="51"/>
-      <c r="I190" s="51"/>
-      <c r="J190" s="51"/>
-      <c r="K190" s="51"/>
-      <c r="L190" s="51"/>
-      <c r="M190" s="51"/>
-      <c r="N190" s="51"/>
-      <c r="O190" s="51"/>
-      <c r="P190" s="51"/>
-      <c r="Q190" s="51"/>
-      <c r="R190" s="51"/>
-      <c r="S190" s="51"/>
-      <c r="T190" s="56"/>
+      <c r="B190" s="50"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="49"/>
+      <c r="E190" s="49"/>
+      <c r="F190" s="49"/>
+      <c r="G190" s="49"/>
+      <c r="H190" s="49"/>
+      <c r="I190" s="49"/>
+      <c r="J190" s="49"/>
+      <c r="K190" s="49"/>
+      <c r="L190" s="49"/>
+      <c r="M190" s="49"/>
+      <c r="N190" s="49"/>
+      <c r="O190" s="49"/>
+      <c r="P190" s="49"/>
+      <c r="Q190" s="49"/>
+      <c r="R190" s="49"/>
+      <c r="S190" s="49"/>
+      <c r="T190" s="54"/>
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="2:20">
-      <c r="B191" s="52"/>
-      <c r="C191" s="53"/>
-      <c r="D191" s="51"/>
-      <c r="E191" s="51"/>
-      <c r="F191" s="51"/>
-      <c r="G191" s="51"/>
-      <c r="H191" s="51"/>
-      <c r="I191" s="51"/>
-      <c r="J191" s="51"/>
-      <c r="K191" s="51"/>
-      <c r="L191" s="51"/>
-      <c r="M191" s="51"/>
-      <c r="N191" s="51"/>
-      <c r="O191" s="51"/>
-      <c r="P191" s="51"/>
-      <c r="Q191" s="51"/>
-      <c r="R191" s="51"/>
-      <c r="S191" s="51"/>
-      <c r="T191" s="56"/>
+      <c r="B191" s="50"/>
+      <c r="C191" s="51"/>
+      <c r="D191" s="49"/>
+      <c r="E191" s="49"/>
+      <c r="F191" s="49"/>
+      <c r="G191" s="49"/>
+      <c r="H191" s="49"/>
+      <c r="I191" s="49"/>
+      <c r="J191" s="49"/>
+      <c r="K191" s="49"/>
+      <c r="L191" s="49"/>
+      <c r="M191" s="49"/>
+      <c r="N191" s="49"/>
+      <c r="O191" s="49"/>
+      <c r="P191" s="49"/>
+      <c r="Q191" s="49"/>
+      <c r="R191" s="49"/>
+      <c r="S191" s="49"/>
+      <c r="T191" s="54"/>
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B192" s="54"/>
-      <c r="C192" s="54"/>
-      <c r="D192" s="54"/>
-      <c r="E192" s="54"/>
-      <c r="F192" s="54"/>
-      <c r="G192" s="54"/>
-      <c r="H192" s="54"/>
-      <c r="I192" s="54"/>
-      <c r="J192" s="54"/>
-      <c r="K192" s="54"/>
-      <c r="L192" s="54"/>
-      <c r="M192" s="54"/>
-      <c r="N192" s="54"/>
-      <c r="O192" s="54"/>
-      <c r="P192" s="54"/>
-      <c r="Q192" s="54"/>
-      <c r="R192" s="54"/>
-      <c r="S192" s="54"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="52"/>
+      <c r="D192" s="52"/>
+      <c r="E192" s="52"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="52"/>
+      <c r="H192" s="52"/>
+      <c r="I192" s="52"/>
+      <c r="J192" s="52"/>
+      <c r="K192" s="52"/>
+      <c r="L192" s="52"/>
+      <c r="M192" s="52"/>
+      <c r="N192" s="52"/>
+      <c r="O192" s="52"/>
+      <c r="P192" s="52"/>
+      <c r="Q192" s="52"/>
+      <c r="R192" s="52"/>
+      <c r="S192" s="52"/>
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B193" s="54"/>
-      <c r="C193" s="54"/>
-      <c r="D193" s="54"/>
-      <c r="E193" s="54"/>
-      <c r="F193" s="54"/>
-      <c r="G193" s="54"/>
-      <c r="H193" s="54"/>
-      <c r="I193" s="54"/>
-      <c r="J193" s="54"/>
-      <c r="K193" s="54"/>
-      <c r="L193" s="54"/>
-      <c r="M193" s="54"/>
-      <c r="N193" s="54"/>
-      <c r="O193" s="54"/>
-      <c r="P193" s="54"/>
-      <c r="Q193" s="54"/>
-      <c r="R193" s="54"/>
-      <c r="S193" s="54"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="52"/>
+      <c r="D193" s="52"/>
+      <c r="E193" s="52"/>
+      <c r="F193" s="52"/>
+      <c r="G193" s="52"/>
+      <c r="H193" s="52"/>
+      <c r="I193" s="52"/>
+      <c r="J193" s="52"/>
+      <c r="K193" s="52"/>
+      <c r="L193" s="52"/>
+      <c r="M193" s="52"/>
+      <c r="N193" s="52"/>
+      <c r="O193" s="52"/>
+      <c r="P193" s="52"/>
+      <c r="Q193" s="52"/>
+      <c r="R193" s="52"/>
+      <c r="S193" s="52"/>
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B194" s="54"/>
-      <c r="C194" s="54"/>
-      <c r="D194" s="54"/>
-      <c r="E194" s="54"/>
-      <c r="F194" s="54"/>
-      <c r="G194" s="54"/>
-      <c r="H194" s="54"/>
-      <c r="I194" s="54"/>
-      <c r="J194" s="54"/>
-      <c r="K194" s="54"/>
-      <c r="L194" s="54"/>
-      <c r="M194" s="54"/>
-      <c r="N194" s="54"/>
-      <c r="O194" s="54"/>
-      <c r="P194" s="54"/>
-      <c r="Q194" s="54"/>
-      <c r="R194" s="54"/>
-      <c r="S194" s="54"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="52"/>
+      <c r="D194" s="52"/>
+      <c r="E194" s="52"/>
+      <c r="F194" s="52"/>
+      <c r="G194" s="52"/>
+      <c r="H194" s="52"/>
+      <c r="I194" s="52"/>
+      <c r="J194" s="52"/>
+      <c r="K194" s="52"/>
+      <c r="L194" s="52"/>
+      <c r="M194" s="52"/>
+      <c r="N194" s="52"/>
+      <c r="O194" s="52"/>
+      <c r="P194" s="52"/>
+      <c r="Q194" s="52"/>
+      <c r="R194" s="52"/>
+      <c r="S194" s="52"/>
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B195" s="54"/>
-      <c r="C195" s="54"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="54"/>
-      <c r="G195" s="54"/>
-      <c r="H195" s="54"/>
-      <c r="I195" s="54"/>
-      <c r="J195" s="54"/>
-      <c r="K195" s="54"/>
-      <c r="L195" s="54"/>
-      <c r="M195" s="54"/>
-      <c r="N195" s="54"/>
-      <c r="O195" s="54"/>
-      <c r="P195" s="54"/>
-      <c r="Q195" s="54"/>
-      <c r="R195" s="54"/>
-      <c r="S195" s="54"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="52"/>
+      <c r="D195" s="52"/>
+      <c r="E195" s="52"/>
+      <c r="F195" s="52"/>
+      <c r="G195" s="52"/>
+      <c r="H195" s="52"/>
+      <c r="I195" s="52"/>
+      <c r="J195" s="52"/>
+      <c r="K195" s="52"/>
+      <c r="L195" s="52"/>
+      <c r="M195" s="52"/>
+      <c r="N195" s="52"/>
+      <c r="O195" s="52"/>
+      <c r="P195" s="52"/>
+      <c r="Q195" s="52"/>
+      <c r="R195" s="52"/>
+      <c r="S195" s="52"/>
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B196" s="54"/>
-      <c r="C196" s="54"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="54"/>
-      <c r="G196" s="54"/>
-      <c r="H196" s="54"/>
-      <c r="I196" s="54"/>
-      <c r="J196" s="54"/>
-      <c r="K196" s="54"/>
-      <c r="L196" s="54"/>
-      <c r="M196" s="54"/>
-      <c r="N196" s="54"/>
-      <c r="O196" s="54"/>
-      <c r="P196" s="54"/>
-      <c r="Q196" s="54"/>
-      <c r="R196" s="54"/>
-      <c r="S196" s="54"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="52"/>
+      <c r="H196" s="52"/>
+      <c r="I196" s="52"/>
+      <c r="J196" s="52"/>
+      <c r="K196" s="52"/>
+      <c r="L196" s="52"/>
+      <c r="M196" s="52"/>
+      <c r="N196" s="52"/>
+      <c r="O196" s="52"/>
+      <c r="P196" s="52"/>
+      <c r="Q196" s="52"/>
+      <c r="R196" s="52"/>
+      <c r="S196" s="52"/>
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B197" s="54"/>
-      <c r="C197" s="54"/>
-      <c r="D197" s="54"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="54"/>
-      <c r="G197" s="54"/>
-      <c r="H197" s="54"/>
-      <c r="I197" s="54"/>
-      <c r="J197" s="54"/>
-      <c r="K197" s="54"/>
-      <c r="L197" s="54"/>
-      <c r="M197" s="54"/>
-      <c r="N197" s="54"/>
-      <c r="O197" s="54"/>
-      <c r="P197" s="54"/>
-      <c r="Q197" s="54"/>
-      <c r="R197" s="54"/>
-      <c r="S197" s="54"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="52"/>
+      <c r="D197" s="52"/>
+      <c r="E197" s="52"/>
+      <c r="F197" s="52"/>
+      <c r="G197" s="52"/>
+      <c r="H197" s="52"/>
+      <c r="I197" s="52"/>
+      <c r="J197" s="52"/>
+      <c r="K197" s="52"/>
+      <c r="L197" s="52"/>
+      <c r="M197" s="52"/>
+      <c r="N197" s="52"/>
+      <c r="O197" s="52"/>
+      <c r="P197" s="52"/>
+      <c r="Q197" s="52"/>
+      <c r="R197" s="52"/>
+      <c r="S197" s="52"/>
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B198" s="54"/>
-      <c r="C198" s="54"/>
-      <c r="D198" s="54"/>
-      <c r="E198" s="54"/>
-      <c r="F198" s="54"/>
-      <c r="G198" s="54"/>
-      <c r="H198" s="54"/>
-      <c r="I198" s="54"/>
-      <c r="J198" s="54"/>
-      <c r="K198" s="54"/>
-      <c r="L198" s="54"/>
-      <c r="M198" s="54"/>
-      <c r="N198" s="54"/>
-      <c r="O198" s="54"/>
-      <c r="P198" s="54"/>
-      <c r="Q198" s="54"/>
-      <c r="R198" s="54"/>
-      <c r="S198" s="54"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="52"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="52"/>
+      <c r="F198" s="52"/>
+      <c r="G198" s="52"/>
+      <c r="H198" s="52"/>
+      <c r="I198" s="52"/>
+      <c r="J198" s="52"/>
+      <c r="K198" s="52"/>
+      <c r="L198" s="52"/>
+      <c r="M198" s="52"/>
+      <c r="N198" s="52"/>
+      <c r="O198" s="52"/>
+      <c r="P198" s="52"/>
+      <c r="Q198" s="52"/>
+      <c r="R198" s="52"/>
+      <c r="S198" s="52"/>
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B199" s="54"/>
-      <c r="C199" s="54"/>
-      <c r="D199" s="54"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="54"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="54"/>
-      <c r="I199" s="54"/>
-      <c r="J199" s="54"/>
-      <c r="K199" s="54"/>
-      <c r="L199" s="54"/>
-      <c r="M199" s="54"/>
-      <c r="N199" s="54"/>
-      <c r="O199" s="54"/>
-      <c r="P199" s="54"/>
-      <c r="Q199" s="54"/>
-      <c r="R199" s="54"/>
-      <c r="S199" s="54"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="52"/>
+      <c r="D199" s="52"/>
+      <c r="E199" s="52"/>
+      <c r="F199" s="52"/>
+      <c r="G199" s="52"/>
+      <c r="H199" s="52"/>
+      <c r="I199" s="52"/>
+      <c r="J199" s="52"/>
+      <c r="K199" s="52"/>
+      <c r="L199" s="52"/>
+      <c r="M199" s="52"/>
+      <c r="N199" s="52"/>
+      <c r="O199" s="52"/>
+      <c r="P199" s="52"/>
+      <c r="Q199" s="52"/>
+      <c r="R199" s="52"/>
+      <c r="S199" s="52"/>
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B200" s="54"/>
-      <c r="C200" s="54"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="54"/>
-      <c r="G200" s="54"/>
-      <c r="H200" s="54"/>
-      <c r="I200" s="54"/>
-      <c r="J200" s="54"/>
-      <c r="K200" s="54"/>
-      <c r="L200" s="54"/>
-      <c r="M200" s="54"/>
-      <c r="N200" s="54"/>
-      <c r="O200" s="54"/>
-      <c r="P200" s="54"/>
-      <c r="Q200" s="54"/>
-      <c r="R200" s="54"/>
-      <c r="S200" s="54"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="52"/>
+      <c r="D200" s="52"/>
+      <c r="E200" s="52"/>
+      <c r="F200" s="52"/>
+      <c r="G200" s="52"/>
+      <c r="H200" s="52"/>
+      <c r="I200" s="52"/>
+      <c r="J200" s="52"/>
+      <c r="K200" s="52"/>
+      <c r="L200" s="52"/>
+      <c r="M200" s="52"/>
+      <c r="N200" s="52"/>
+      <c r="O200" s="52"/>
+      <c r="P200" s="52"/>
+      <c r="Q200" s="52"/>
+      <c r="R200" s="52"/>
+      <c r="S200" s="52"/>
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B201" s="54"/>
-      <c r="C201" s="54"/>
-      <c r="D201" s="54"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="54"/>
-      <c r="G201" s="54"/>
-      <c r="H201" s="54"/>
-      <c r="I201" s="54"/>
-      <c r="J201" s="54"/>
-      <c r="K201" s="54"/>
-      <c r="L201" s="54"/>
-      <c r="M201" s="54"/>
-      <c r="N201" s="54"/>
-      <c r="O201" s="54"/>
-      <c r="P201" s="54"/>
-      <c r="Q201" s="54"/>
-      <c r="R201" s="54"/>
-      <c r="S201" s="54"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="52"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="52"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="52"/>
+      <c r="H201" s="52"/>
+      <c r="I201" s="52"/>
+      <c r="J201" s="52"/>
+      <c r="K201" s="52"/>
+      <c r="L201" s="52"/>
+      <c r="M201" s="52"/>
+      <c r="N201" s="52"/>
+      <c r="O201" s="52"/>
+      <c r="P201" s="52"/>
+      <c r="Q201" s="52"/>
+      <c r="R201" s="52"/>
+      <c r="S201" s="52"/>
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B202" s="54"/>
-      <c r="C202" s="54"/>
-      <c r="D202" s="54"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="54"/>
-      <c r="G202" s="54"/>
-      <c r="H202" s="54"/>
-      <c r="I202" s="54"/>
-      <c r="J202" s="54"/>
-      <c r="K202" s="54"/>
-      <c r="L202" s="54"/>
-      <c r="M202" s="54"/>
-      <c r="N202" s="54"/>
-      <c r="O202" s="54"/>
-      <c r="P202" s="54"/>
-      <c r="Q202" s="54"/>
-      <c r="R202" s="54"/>
-      <c r="S202" s="54"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="52"/>
+      <c r="D202" s="52"/>
+      <c r="E202" s="52"/>
+      <c r="F202" s="52"/>
+      <c r="G202" s="52"/>
+      <c r="H202" s="52"/>
+      <c r="I202" s="52"/>
+      <c r="J202" s="52"/>
+      <c r="K202" s="52"/>
+      <c r="L202" s="52"/>
+      <c r="M202" s="52"/>
+      <c r="N202" s="52"/>
+      <c r="O202" s="52"/>
+      <c r="P202" s="52"/>
+      <c r="Q202" s="52"/>
+      <c r="R202" s="52"/>
+      <c r="S202" s="52"/>
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B203" s="54"/>
-      <c r="C203" s="54"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="54"/>
-      <c r="F203" s="54"/>
-      <c r="G203" s="54"/>
-      <c r="H203" s="54"/>
-      <c r="I203" s="54"/>
-      <c r="J203" s="54"/>
-      <c r="K203" s="54"/>
-      <c r="L203" s="54"/>
-      <c r="M203" s="54"/>
-      <c r="N203" s="54"/>
-      <c r="O203" s="54"/>
-      <c r="P203" s="54"/>
-      <c r="Q203" s="54"/>
-      <c r="R203" s="54"/>
-      <c r="S203" s="54"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="52"/>
+      <c r="D203" s="52"/>
+      <c r="E203" s="52"/>
+      <c r="F203" s="52"/>
+      <c r="G203" s="52"/>
+      <c r="H203" s="52"/>
+      <c r="I203" s="52"/>
+      <c r="J203" s="52"/>
+      <c r="K203" s="52"/>
+      <c r="L203" s="52"/>
+      <c r="M203" s="52"/>
+      <c r="N203" s="52"/>
+      <c r="O203" s="52"/>
+      <c r="P203" s="52"/>
+      <c r="Q203" s="52"/>
+      <c r="R203" s="52"/>
+      <c r="S203" s="52"/>
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B204" s="54"/>
-      <c r="C204" s="54"/>
-      <c r="D204" s="54"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="54"/>
-      <c r="G204" s="54"/>
-      <c r="H204" s="54"/>
-      <c r="I204" s="54"/>
-      <c r="J204" s="54"/>
-      <c r="K204" s="54"/>
-      <c r="L204" s="45"/>
-      <c r="M204" s="53"/>
-      <c r="N204" s="53"/>
-      <c r="O204" s="53"/>
-      <c r="P204" s="53"/>
-      <c r="Q204" s="53"/>
-      <c r="R204" s="53"/>
-      <c r="S204" s="53"/>
-      <c r="T204" s="46"/>
-      <c r="U204" s="46"/>
-      <c r="V204" s="46"/>
-      <c r="W204" s="46"/>
-      <c r="X204" s="46"/>
-      <c r="Y204" s="46"/>
-      <c r="Z204" s="46"/>
-      <c r="AA204" s="46"/>
-      <c r="AB204" s="46"/>
-      <c r="AC204" s="46"/>
-      <c r="AD204" s="46"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="52"/>
+      <c r="D204" s="52"/>
+      <c r="E204" s="52"/>
+      <c r="F204" s="52"/>
+      <c r="G204" s="52"/>
+      <c r="H204" s="52"/>
+      <c r="I204" s="52"/>
+      <c r="J204" s="52"/>
+      <c r="K204" s="52"/>
+      <c r="L204" s="44"/>
+      <c r="M204" s="51"/>
+      <c r="N204" s="51"/>
+      <c r="O204" s="51"/>
+      <c r="P204" s="51"/>
+      <c r="Q204" s="51"/>
+      <c r="R204" s="51"/>
+      <c r="S204" s="51"/>
+      <c r="T204" s="45"/>
+      <c r="U204" s="45"/>
+      <c r="V204" s="45"/>
+      <c r="W204" s="45"/>
+      <c r="X204" s="45"/>
+      <c r="Y204" s="45"/>
+      <c r="Z204" s="45"/>
+      <c r="AA204" s="45"/>
+      <c r="AB204" s="45"/>
+      <c r="AC204" s="45"/>
+      <c r="AD204" s="45"/>
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="2:30">
-      <c r="B205" s="54"/>
-      <c r="C205" s="54"/>
-      <c r="D205" s="54"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="54"/>
-      <c r="G205" s="54"/>
-      <c r="H205" s="54"/>
-      <c r="I205" s="54"/>
-      <c r="J205" s="54"/>
-      <c r="K205" s="54"/>
-      <c r="L205" s="53"/>
-      <c r="M205" s="53"/>
-      <c r="N205" s="53"/>
-      <c r="O205" s="53"/>
-      <c r="P205" s="53"/>
-      <c r="Q205" s="53"/>
-      <c r="R205" s="53"/>
-      <c r="S205" s="53"/>
-      <c r="T205" s="46"/>
-      <c r="U205" s="46"/>
-      <c r="V205" s="46"/>
-      <c r="W205" s="46"/>
-      <c r="X205" s="46"/>
-      <c r="Y205" s="46"/>
-      <c r="Z205" s="46"/>
-      <c r="AA205" s="46"/>
-      <c r="AB205" s="46"/>
-      <c r="AC205" s="46"/>
-      <c r="AD205" s="46"/>
+      <c r="B205" s="52"/>
+      <c r="C205" s="52"/>
+      <c r="D205" s="52"/>
+      <c r="E205" s="52"/>
+      <c r="F205" s="52"/>
+      <c r="G205" s="52"/>
+      <c r="H205" s="52"/>
+      <c r="I205" s="52"/>
+      <c r="J205" s="52"/>
+      <c r="K205" s="52"/>
+      <c r="L205" s="51"/>
+      <c r="M205" s="51"/>
+      <c r="N205" s="51"/>
+      <c r="O205" s="51"/>
+      <c r="P205" s="51"/>
+      <c r="Q205" s="51"/>
+      <c r="R205" s="51"/>
+      <c r="S205" s="51"/>
+      <c r="T205" s="45"/>
+      <c r="U205" s="45"/>
+      <c r="V205" s="45"/>
+      <c r="W205" s="45"/>
+      <c r="X205" s="45"/>
+      <c r="Y205" s="45"/>
+      <c r="Z205" s="45"/>
+      <c r="AA205" s="45"/>
+      <c r="AB205" s="45"/>
+      <c r="AC205" s="45"/>
+      <c r="AD205" s="45"/>
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B206" s="54"/>
-      <c r="C206" s="54"/>
-      <c r="D206" s="54"/>
-      <c r="E206" s="54"/>
-      <c r="F206" s="54"/>
-      <c r="G206" s="54"/>
-      <c r="H206" s="54"/>
-      <c r="I206" s="54"/>
-      <c r="J206" s="54"/>
-      <c r="K206" s="54"/>
-      <c r="L206" s="54"/>
-      <c r="M206" s="54"/>
-      <c r="N206" s="54"/>
-      <c r="O206" s="54"/>
-      <c r="P206" s="54"/>
-      <c r="Q206" s="54"/>
-      <c r="R206" s="54"/>
-      <c r="S206" s="54"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="52"/>
+      <c r="D206" s="52"/>
+      <c r="E206" s="52"/>
+      <c r="F206" s="52"/>
+      <c r="G206" s="52"/>
+      <c r="H206" s="52"/>
+      <c r="I206" s="52"/>
+      <c r="J206" s="52"/>
+      <c r="K206" s="52"/>
+      <c r="L206" s="52"/>
+      <c r="M206" s="52"/>
+      <c r="N206" s="52"/>
+      <c r="O206" s="52"/>
+      <c r="P206" s="52"/>
+      <c r="Q206" s="52"/>
+      <c r="R206" s="52"/>
+      <c r="S206" s="52"/>
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="2:19">
-      <c r="B207" s="54"/>
-      <c r="C207" s="54"/>
-      <c r="D207" s="54"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="54"/>
-      <c r="G207" s="54"/>
-      <c r="H207" s="54"/>
-      <c r="I207" s="54"/>
-      <c r="J207" s="54"/>
-      <c r="K207" s="54"/>
-      <c r="L207" s="54"/>
-      <c r="M207" s="54"/>
-      <c r="N207" s="54"/>
-      <c r="O207" s="54"/>
-      <c r="P207" s="54"/>
-      <c r="Q207" s="54"/>
-      <c r="R207" s="54"/>
-      <c r="S207" s="54"/>
+      <c r="B207" s="52"/>
+      <c r="C207" s="52"/>
+      <c r="D207" s="52"/>
+      <c r="E207" s="52"/>
+      <c r="F207" s="52"/>
+      <c r="G207" s="52"/>
+      <c r="H207" s="52"/>
+      <c r="I207" s="52"/>
+      <c r="J207" s="52"/>
+      <c r="K207" s="52"/>
+      <c r="L207" s="52"/>
+      <c r="M207" s="52"/>
+      <c r="N207" s="52"/>
+      <c r="O207" s="52"/>
+      <c r="P207" s="52"/>
+      <c r="Q207" s="52"/>
+      <c r="R207" s="52"/>
+      <c r="S207" s="52"/>
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B208" s="54"/>
-      <c r="C208" s="54"/>
-      <c r="D208" s="54"/>
-      <c r="E208" s="54"/>
-      <c r="F208" s="54"/>
-      <c r="G208" s="54"/>
-      <c r="H208" s="54"/>
-      <c r="I208" s="54"/>
-      <c r="J208" s="54"/>
-      <c r="K208" s="54"/>
-      <c r="L208" s="63"/>
-      <c r="M208" s="54"/>
-      <c r="N208" s="54"/>
-      <c r="O208" s="54"/>
-      <c r="P208" s="54"/>
-      <c r="Q208" s="63"/>
-      <c r="R208" s="54"/>
-      <c r="S208" s="54"/>
+      <c r="B208" s="52"/>
+      <c r="C208" s="52"/>
+      <c r="D208" s="52"/>
+      <c r="E208" s="52"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="52"/>
+      <c r="H208" s="52"/>
+      <c r="I208" s="52"/>
+      <c r="J208" s="52"/>
+      <c r="K208" s="52"/>
+      <c r="L208" s="61"/>
+      <c r="M208" s="52"/>
+      <c r="N208" s="52"/>
+      <c r="O208" s="52"/>
+      <c r="P208" s="52"/>
+      <c r="Q208" s="61"/>
+      <c r="R208" s="52"/>
+      <c r="S208" s="52"/>
       <c r="V208" s="29"/>
       <c r="AA208" s="29"/>
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B209" s="54"/>
-      <c r="C209" s="54"/>
-      <c r="D209" s="54"/>
-      <c r="E209" s="54"/>
-      <c r="F209" s="54"/>
-      <c r="G209" s="54"/>
-      <c r="H209" s="54"/>
-      <c r="I209" s="54"/>
-      <c r="J209" s="54"/>
-      <c r="K209" s="54"/>
-      <c r="L209" s="64"/>
-      <c r="M209" s="54"/>
-      <c r="N209" s="54"/>
-      <c r="O209" s="54"/>
-      <c r="P209" s="54"/>
-      <c r="Q209" s="64"/>
-      <c r="R209" s="54"/>
-      <c r="S209" s="54"/>
+      <c r="B209" s="52"/>
+      <c r="C209" s="52"/>
+      <c r="D209" s="52"/>
+      <c r="E209" s="52"/>
+      <c r="F209" s="52"/>
+      <c r="G209" s="52"/>
+      <c r="H209" s="52"/>
+      <c r="I209" s="52"/>
+      <c r="J209" s="52"/>
+      <c r="K209" s="52"/>
+      <c r="L209" s="62"/>
+      <c r="M209" s="52"/>
+      <c r="N209" s="52"/>
+      <c r="O209" s="52"/>
+      <c r="P209" s="52"/>
+      <c r="Q209" s="62"/>
+      <c r="R209" s="52"/>
+      <c r="S209" s="52"/>
       <c r="V209" s="30"/>
       <c r="AA209" s="30"/>
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B210" s="54"/>
-      <c r="C210" s="54"/>
-      <c r="D210" s="54"/>
-      <c r="E210" s="54"/>
-      <c r="F210" s="54"/>
-      <c r="G210" s="54"/>
-      <c r="H210" s="54"/>
-      <c r="I210" s="54"/>
-      <c r="J210" s="54"/>
-      <c r="K210" s="54"/>
-      <c r="L210" s="64"/>
-      <c r="M210" s="54"/>
-      <c r="N210" s="54"/>
-      <c r="O210" s="54"/>
-      <c r="P210" s="54"/>
-      <c r="Q210" s="64"/>
-      <c r="R210" s="54"/>
-      <c r="S210" s="54"/>
+      <c r="B210" s="52"/>
+      <c r="C210" s="52"/>
+      <c r="D210" s="52"/>
+      <c r="E210" s="52"/>
+      <c r="F210" s="52"/>
+      <c r="G210" s="52"/>
+      <c r="H210" s="52"/>
+      <c r="I210" s="52"/>
+      <c r="J210" s="52"/>
+      <c r="K210" s="52"/>
+      <c r="L210" s="62"/>
+      <c r="M210" s="52"/>
+      <c r="N210" s="52"/>
+      <c r="O210" s="52"/>
+      <c r="P210" s="52"/>
+      <c r="Q210" s="62"/>
+      <c r="R210" s="52"/>
+      <c r="S210" s="52"/>
       <c r="V210" s="30"/>
       <c r="AA210" s="30"/>
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B211" s="54"/>
-      <c r="C211" s="54"/>
-      <c r="D211" s="54"/>
-      <c r="E211" s="54"/>
-      <c r="F211" s="54"/>
-      <c r="G211" s="54"/>
-      <c r="H211" s="54"/>
-      <c r="I211" s="54"/>
-      <c r="J211" s="54"/>
-      <c r="K211" s="54"/>
-      <c r="L211" s="64"/>
-      <c r="M211" s="54"/>
-      <c r="N211" s="54"/>
-      <c r="O211" s="54"/>
-      <c r="P211" s="54"/>
-      <c r="Q211" s="64"/>
-      <c r="R211" s="54"/>
-      <c r="S211" s="54"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="52"/>
+      <c r="D211" s="52"/>
+      <c r="E211" s="52"/>
+      <c r="F211" s="52"/>
+      <c r="G211" s="52"/>
+      <c r="H211" s="52"/>
+      <c r="I211" s="52"/>
+      <c r="J211" s="52"/>
+      <c r="K211" s="52"/>
+      <c r="L211" s="62"/>
+      <c r="M211" s="52"/>
+      <c r="N211" s="52"/>
+      <c r="O211" s="52"/>
+      <c r="P211" s="52"/>
+      <c r="Q211" s="62"/>
+      <c r="R211" s="52"/>
+      <c r="S211" s="52"/>
       <c r="V211" s="30"/>
       <c r="AA211" s="30"/>
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B212" s="54"/>
-      <c r="C212" s="54"/>
-      <c r="D212" s="54"/>
-      <c r="E212" s="54"/>
-      <c r="F212" s="54"/>
-      <c r="G212" s="54"/>
-      <c r="H212" s="54"/>
-      <c r="I212" s="54"/>
-      <c r="J212" s="54"/>
-      <c r="K212" s="54"/>
-      <c r="L212" s="64"/>
-      <c r="M212" s="54"/>
-      <c r="N212" s="54"/>
-      <c r="O212" s="54"/>
-      <c r="P212" s="54"/>
-      <c r="Q212" s="64"/>
-      <c r="R212" s="54"/>
-      <c r="S212" s="54"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="52"/>
+      <c r="D212" s="52"/>
+      <c r="E212" s="52"/>
+      <c r="F212" s="52"/>
+      <c r="G212" s="52"/>
+      <c r="H212" s="52"/>
+      <c r="I212" s="52"/>
+      <c r="J212" s="52"/>
+      <c r="K212" s="52"/>
+      <c r="L212" s="62"/>
+      <c r="M212" s="52"/>
+      <c r="N212" s="52"/>
+      <c r="O212" s="52"/>
+      <c r="P212" s="52"/>
+      <c r="Q212" s="62"/>
+      <c r="R212" s="52"/>
+      <c r="S212" s="52"/>
       <c r="V212" s="30"/>
       <c r="AA212" s="30"/>
     </row>
     <row r="213" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B213" s="54"/>
-      <c r="C213" s="54"/>
-      <c r="D213" s="54"/>
-      <c r="E213" s="54"/>
-      <c r="F213" s="54"/>
-      <c r="G213" s="54"/>
-      <c r="H213" s="54"/>
-      <c r="I213" s="54"/>
-      <c r="J213" s="54"/>
-      <c r="K213" s="54"/>
-      <c r="L213" s="64"/>
-      <c r="M213" s="54"/>
-      <c r="N213" s="54"/>
-      <c r="O213" s="54"/>
-      <c r="P213" s="54"/>
-      <c r="Q213" s="64"/>
-      <c r="R213" s="54"/>
-      <c r="S213" s="54"/>
+      <c r="B213" s="52"/>
+      <c r="C213" s="52"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="52"/>
+      <c r="F213" s="52"/>
+      <c r="G213" s="52"/>
+      <c r="H213" s="52"/>
+      <c r="I213" s="52"/>
+      <c r="J213" s="52"/>
+      <c r="K213" s="52"/>
+      <c r="L213" s="62"/>
+      <c r="M213" s="52"/>
+      <c r="N213" s="52"/>
+      <c r="O213" s="52"/>
+      <c r="P213" s="52"/>
+      <c r="Q213" s="62"/>
+      <c r="R213" s="52"/>
+      <c r="S213" s="52"/>
       <c r="V213" s="30"/>
       <c r="AA213" s="30"/>
     </row>
     <row r="214" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B214" s="54"/>
-      <c r="C214" s="54"/>
-      <c r="D214" s="54"/>
-      <c r="E214" s="54"/>
-      <c r="F214" s="54"/>
-      <c r="G214" s="54"/>
-      <c r="H214" s="54"/>
-      <c r="I214" s="54"/>
-      <c r="J214" s="54"/>
-      <c r="K214" s="54"/>
-      <c r="L214" s="64"/>
-      <c r="M214" s="54"/>
-      <c r="N214" s="54"/>
-      <c r="O214" s="54"/>
-      <c r="P214" s="54"/>
-      <c r="Q214" s="64"/>
-      <c r="R214" s="54"/>
-      <c r="S214" s="54"/>
+      <c r="B214" s="52"/>
+      <c r="C214" s="52"/>
+      <c r="D214" s="52"/>
+      <c r="E214" s="52"/>
+      <c r="F214" s="52"/>
+      <c r="G214" s="52"/>
+      <c r="H214" s="52"/>
+      <c r="I214" s="52"/>
+      <c r="J214" s="52"/>
+      <c r="K214" s="52"/>
+      <c r="L214" s="62"/>
+      <c r="M214" s="52"/>
+      <c r="N214" s="52"/>
+      <c r="O214" s="52"/>
+      <c r="P214" s="52"/>
+      <c r="Q214" s="62"/>
+      <c r="R214" s="52"/>
+      <c r="S214" s="52"/>
       <c r="V214" s="30"/>
       <c r="AA214" s="30"/>
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B215" s="54"/>
-      <c r="C215" s="54"/>
-      <c r="D215" s="54"/>
-      <c r="E215" s="54"/>
-      <c r="F215" s="54"/>
-      <c r="G215" s="54"/>
-      <c r="H215" s="54"/>
-      <c r="I215" s="54"/>
-      <c r="J215" s="54"/>
-      <c r="K215" s="54"/>
-      <c r="L215" s="65"/>
-      <c r="M215" s="54"/>
-      <c r="N215" s="54"/>
-      <c r="O215" s="54"/>
-      <c r="P215" s="54"/>
-      <c r="Q215" s="65"/>
-      <c r="R215" s="54"/>
-      <c r="S215" s="54"/>
+      <c r="B215" s="52"/>
+      <c r="C215" s="52"/>
+      <c r="D215" s="52"/>
+      <c r="E215" s="52"/>
+      <c r="F215" s="52"/>
+      <c r="G215" s="52"/>
+      <c r="H215" s="52"/>
+      <c r="I215" s="52"/>
+      <c r="J215" s="52"/>
+      <c r="K215" s="52"/>
+      <c r="L215" s="63"/>
+      <c r="M215" s="52"/>
+      <c r="N215" s="52"/>
+      <c r="O215" s="52"/>
+      <c r="P215" s="52"/>
+      <c r="Q215" s="63"/>
+      <c r="R215" s="52"/>
+      <c r="S215" s="52"/>
       <c r="V215" s="31"/>
       <c r="AA215" s="31"/>
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B216" s="54"/>
-      <c r="C216" s="54"/>
-      <c r="D216" s="54"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="54"/>
-      <c r="G216" s="54"/>
-      <c r="H216" s="54"/>
-      <c r="I216" s="54"/>
-      <c r="J216" s="54"/>
-      <c r="K216" s="54"/>
-      <c r="L216" s="64"/>
-      <c r="M216" s="54"/>
-      <c r="N216" s="54"/>
-      <c r="O216" s="54"/>
-      <c r="P216" s="54"/>
-      <c r="Q216" s="64"/>
-      <c r="R216" s="54"/>
-      <c r="S216" s="54"/>
+      <c r="B216" s="52"/>
+      <c r="C216" s="52"/>
+      <c r="D216" s="52"/>
+      <c r="E216" s="52"/>
+      <c r="F216" s="52"/>
+      <c r="G216" s="52"/>
+      <c r="H216" s="52"/>
+      <c r="I216" s="52"/>
+      <c r="J216" s="52"/>
+      <c r="K216" s="52"/>
+      <c r="L216" s="62"/>
+      <c r="M216" s="52"/>
+      <c r="N216" s="52"/>
+      <c r="O216" s="52"/>
+      <c r="P216" s="52"/>
+      <c r="Q216" s="62"/>
+      <c r="R216" s="52"/>
+      <c r="S216" s="52"/>
       <c r="V216" s="30"/>
       <c r="AA216" s="30"/>
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B217" s="54"/>
-      <c r="C217" s="54"/>
-      <c r="D217" s="54"/>
-      <c r="E217" s="54"/>
-      <c r="F217" s="54"/>
-      <c r="G217" s="54"/>
-      <c r="H217" s="54"/>
-      <c r="I217" s="54"/>
-      <c r="J217" s="54"/>
-      <c r="K217" s="54"/>
-      <c r="L217" s="64"/>
-      <c r="M217" s="54"/>
-      <c r="N217" s="54"/>
-      <c r="O217" s="54"/>
-      <c r="P217" s="54"/>
-      <c r="Q217" s="64"/>
-      <c r="R217" s="54"/>
-      <c r="S217" s="54"/>
+      <c r="B217" s="52"/>
+      <c r="C217" s="52"/>
+      <c r="D217" s="52"/>
+      <c r="E217" s="52"/>
+      <c r="F217" s="52"/>
+      <c r="G217" s="52"/>
+      <c r="H217" s="52"/>
+      <c r="I217" s="52"/>
+      <c r="J217" s="52"/>
+      <c r="K217" s="52"/>
+      <c r="L217" s="62"/>
+      <c r="M217" s="52"/>
+      <c r="N217" s="52"/>
+      <c r="O217" s="52"/>
+      <c r="P217" s="52"/>
+      <c r="Q217" s="62"/>
+      <c r="R217" s="52"/>
+      <c r="S217" s="52"/>
       <c r="V217" s="30"/>
       <c r="AA217" s="30"/>
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B218" s="54"/>
-      <c r="C218" s="54"/>
-      <c r="D218" s="54"/>
-      <c r="E218" s="54"/>
-      <c r="F218" s="54"/>
-      <c r="G218" s="54"/>
-      <c r="H218" s="54"/>
-      <c r="I218" s="54"/>
-      <c r="J218" s="54"/>
-      <c r="K218" s="54"/>
-      <c r="L218" s="64"/>
-      <c r="M218" s="54"/>
-      <c r="N218" s="54"/>
-      <c r="O218" s="54"/>
-      <c r="P218" s="54"/>
-      <c r="Q218" s="64"/>
-      <c r="R218" s="54"/>
-      <c r="S218" s="54"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="52"/>
+      <c r="D218" s="52"/>
+      <c r="E218" s="52"/>
+      <c r="F218" s="52"/>
+      <c r="G218" s="52"/>
+      <c r="H218" s="52"/>
+      <c r="I218" s="52"/>
+      <c r="J218" s="52"/>
+      <c r="K218" s="52"/>
+      <c r="L218" s="62"/>
+      <c r="M218" s="52"/>
+      <c r="N218" s="52"/>
+      <c r="O218" s="52"/>
+      <c r="P218" s="52"/>
+      <c r="Q218" s="62"/>
+      <c r="R218" s="52"/>
+      <c r="S218" s="52"/>
       <c r="V218" s="30"/>
       <c r="AA218" s="30"/>
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B219" s="54"/>
-      <c r="C219" s="54"/>
-      <c r="D219" s="54"/>
-      <c r="E219" s="54"/>
-      <c r="F219" s="54"/>
-      <c r="G219" s="54"/>
-      <c r="H219" s="54"/>
-      <c r="I219" s="54"/>
-      <c r="J219" s="54"/>
-      <c r="K219" s="54"/>
-      <c r="L219" s="64"/>
-      <c r="M219" s="54"/>
-      <c r="N219" s="54"/>
-      <c r="O219" s="54"/>
-      <c r="P219" s="54"/>
-      <c r="Q219" s="64"/>
-      <c r="R219" s="54"/>
-      <c r="S219" s="54"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="52"/>
+      <c r="D219" s="52"/>
+      <c r="E219" s="52"/>
+      <c r="F219" s="52"/>
+      <c r="G219" s="52"/>
+      <c r="H219" s="52"/>
+      <c r="I219" s="52"/>
+      <c r="J219" s="52"/>
+      <c r="K219" s="52"/>
+      <c r="L219" s="62"/>
+      <c r="M219" s="52"/>
+      <c r="N219" s="52"/>
+      <c r="O219" s="52"/>
+      <c r="P219" s="52"/>
+      <c r="Q219" s="62"/>
+      <c r="R219" s="52"/>
+      <c r="S219" s="52"/>
       <c r="V219" s="30"/>
       <c r="AA219" s="30"/>
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B220" s="54"/>
-      <c r="C220" s="54"/>
-      <c r="D220" s="54"/>
-      <c r="E220" s="54"/>
-      <c r="F220" s="54"/>
-      <c r="G220" s="54"/>
-      <c r="H220" s="54"/>
-      <c r="I220" s="54"/>
-      <c r="J220" s="54"/>
-      <c r="K220" s="54"/>
-      <c r="L220" s="65"/>
-      <c r="M220" s="54"/>
-      <c r="N220" s="54"/>
-      <c r="O220" s="54"/>
-      <c r="P220" s="54"/>
-      <c r="Q220" s="65"/>
-      <c r="R220" s="54"/>
-      <c r="S220" s="54"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="52"/>
+      <c r="E220" s="52"/>
+      <c r="F220" s="52"/>
+      <c r="G220" s="52"/>
+      <c r="H220" s="52"/>
+      <c r="I220" s="52"/>
+      <c r="J220" s="52"/>
+      <c r="K220" s="52"/>
+      <c r="L220" s="63"/>
+      <c r="M220" s="52"/>
+      <c r="N220" s="52"/>
+      <c r="O220" s="52"/>
+      <c r="P220" s="52"/>
+      <c r="Q220" s="63"/>
+      <c r="R220" s="52"/>
+      <c r="S220" s="52"/>
       <c r="V220" s="31"/>
       <c r="AA220" s="31"/>
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B221" s="54"/>
-      <c r="C221" s="54"/>
-      <c r="D221" s="54"/>
-      <c r="E221" s="54"/>
-      <c r="F221" s="54"/>
-      <c r="G221" s="54"/>
-      <c r="H221" s="54"/>
-      <c r="I221" s="54"/>
-      <c r="J221" s="54"/>
-      <c r="K221" s="54"/>
-      <c r="L221" s="54"/>
-      <c r="M221" s="54"/>
-      <c r="N221" s="54"/>
-      <c r="O221" s="54"/>
-      <c r="P221" s="54"/>
-      <c r="Q221" s="64"/>
-      <c r="R221" s="54"/>
-      <c r="S221" s="54"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
+      <c r="D221" s="52"/>
+      <c r="E221" s="52"/>
+      <c r="F221" s="52"/>
+      <c r="G221" s="52"/>
+      <c r="H221" s="52"/>
+      <c r="I221" s="52"/>
+      <c r="J221" s="52"/>
+      <c r="K221" s="52"/>
+      <c r="L221" s="52"/>
+      <c r="M221" s="52"/>
+      <c r="N221" s="52"/>
+      <c r="O221" s="52"/>
+      <c r="P221" s="52"/>
+      <c r="Q221" s="62"/>
+      <c r="R221" s="52"/>
+      <c r="S221" s="52"/>
       <c r="V221" s="30"/>
       <c r="AA221" s="30"/>
     </row>
     <row r="222" ht="30" customHeight="1" spans="2:27">
-      <c r="B222" s="57" t="s">
+      <c r="B222" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C222" s="58"/>
-      <c r="D222" s="58"/>
-      <c r="E222" s="58"/>
-      <c r="F222" s="58"/>
-      <c r="G222" s="58"/>
-      <c r="H222" s="58"/>
-      <c r="I222" s="58"/>
-      <c r="J222" s="58"/>
-      <c r="K222" s="58"/>
-      <c r="L222" s="58"/>
-      <c r="M222" s="58"/>
-      <c r="N222" s="58"/>
-      <c r="O222" s="58"/>
-      <c r="P222" s="58"/>
-      <c r="Q222" s="58"/>
-      <c r="R222" s="58"/>
-      <c r="S222" s="58"/>
-      <c r="T222" s="58"/>
-      <c r="U222" s="58"/>
-      <c r="V222" s="58"/>
-      <c r="W222" s="58"/>
-      <c r="X222" s="58"/>
+      <c r="C222" s="56"/>
+      <c r="D222" s="56"/>
+      <c r="E222" s="56"/>
+      <c r="F222" s="56"/>
+      <c r="G222" s="56"/>
+      <c r="H222" s="56"/>
+      <c r="I222" s="56"/>
+      <c r="J222" s="56"/>
+      <c r="K222" s="56"/>
+      <c r="L222" s="56"/>
+      <c r="M222" s="56"/>
+      <c r="N222" s="56"/>
+      <c r="O222" s="56"/>
+      <c r="P222" s="56"/>
+      <c r="Q222" s="56"/>
+      <c r="R222" s="56"/>
+      <c r="S222" s="56"/>
+      <c r="T222" s="56"/>
+      <c r="U222" s="56"/>
+      <c r="V222" s="56"/>
+      <c r="W222" s="56"/>
+      <c r="X222" s="56"/>
       <c r="AA222" s="30"/>
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="2:27">
@@ -7763,10 +7751,10 @@
       <c r="AA225" s="30"/>
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B226" s="47" t="s">
+      <c r="B226" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C226" s="48" t="s">
+      <c r="C226" s="47" t="s">
         <v>68</v>
       </c>
       <c r="D226" s="11" t="s">
@@ -7816,17 +7804,19 @@
         <v>1</v>
       </c>
       <c r="V226" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W226" s="34"/>
-      <c r="X226" s="34"/>
+      <c r="X226" s="34">
+        <v>1</v>
+      </c>
       <c r="AA226" s="31"/>
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B227" s="49" t="s">
+      <c r="B227" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C227" s="50" t="s">
+      <c r="C227" s="48" t="s">
         <v>70</v>
       </c>
       <c r="D227" s="13" t="s">
@@ -7868,14 +7858,16 @@
         <v>1</v>
       </c>
       <c r="V227" s="35">
+        <v>0</v>
+      </c>
+      <c r="W227" s="35"/>
+      <c r="X227" s="35">
         <v>1</v>
       </c>
-      <c r="W227" s="35"/>
-      <c r="X227" s="35"/>
       <c r="AA227" s="30"/>
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B228" s="59" t="s">
+      <c r="B228" s="57" t="s">
         <v>71</v>
       </c>
       <c r="C228" s="13" t="s">
@@ -7922,10 +7914,12 @@
         <v>1</v>
       </c>
       <c r="V228" s="35">
+        <v>0</v>
+      </c>
+      <c r="W228" s="35"/>
+      <c r="X228" s="35">
         <v>1</v>
       </c>
-      <c r="W228" s="35"/>
-      <c r="X228" s="35"/>
       <c r="AA228" s="30"/>
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="2:24">
@@ -7941,35 +7935,35 @@
       <c r="E229" s="13">
         <v>15</v>
       </c>
-      <c r="F229" s="55"/>
-      <c r="G229" s="55">
+      <c r="F229" s="53"/>
+      <c r="G229" s="53">
         <v>1</v>
       </c>
-      <c r="H229" s="55">
+      <c r="H229" s="53">
         <v>1</v>
       </c>
-      <c r="I229" s="55">
+      <c r="I229" s="53">
         <v>1</v>
       </c>
-      <c r="J229" s="55">
+      <c r="J229" s="53">
         <v>3</v>
       </c>
-      <c r="K229" s="55"/>
-      <c r="L229" s="55">
+      <c r="K229" s="53"/>
+      <c r="L229" s="53">
         <v>1</v>
       </c>
-      <c r="M229" s="55">
+      <c r="M229" s="53">
         <v>2</v>
       </c>
-      <c r="N229" s="55"/>
-      <c r="O229" s="55">
+      <c r="N229" s="53"/>
+      <c r="O229" s="53">
         <v>2</v>
       </c>
-      <c r="P229" s="55"/>
-      <c r="Q229" s="55">
+      <c r="P229" s="53"/>
+      <c r="Q229" s="53">
         <v>2</v>
       </c>
-      <c r="R229" s="55">
+      <c r="R229" s="53">
         <v>1</v>
       </c>
       <c r="S229" s="35"/>
@@ -8082,11 +8076,11 @@
       </c>
       <c r="V231" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W231" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X231" s="37">
         <f t="shared" si="4"/>
@@ -8182,7 +8176,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1"/>
     <row r="234" ht="15.75" customHeight="1" spans="5:27">
-      <c r="E234" s="56"/>
+      <c r="E234" s="54"/>
       <c r="L234" s="29"/>
       <c r="Q234" s="29"/>
       <c r="V234" s="29"/>
@@ -8236,217 +8230,217 @@
       <c r="AA242" s="30"/>
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="2:27">
-      <c r="B243" s="60"/>
-      <c r="C243" s="60"/>
-      <c r="D243" s="60"/>
-      <c r="E243" s="60"/>
-      <c r="F243" s="60"/>
-      <c r="G243" s="60"/>
-      <c r="H243" s="60"/>
-      <c r="I243" s="60"/>
-      <c r="J243" s="60"/>
-      <c r="K243" s="60"/>
-      <c r="L243" s="60"/>
-      <c r="M243" s="60"/>
-      <c r="N243" s="60"/>
-      <c r="O243" s="60"/>
-      <c r="P243" s="60"/>
-      <c r="Q243" s="60"/>
-      <c r="R243" s="60"/>
-      <c r="S243" s="60"/>
-      <c r="T243" s="60"/>
+      <c r="B243" s="58"/>
+      <c r="C243" s="58"/>
+      <c r="D243" s="58"/>
+      <c r="E243" s="58"/>
+      <c r="F243" s="58"/>
+      <c r="G243" s="58"/>
+      <c r="H243" s="58"/>
+      <c r="I243" s="58"/>
+      <c r="J243" s="58"/>
+      <c r="K243" s="58"/>
+      <c r="L243" s="58"/>
+      <c r="M243" s="58"/>
+      <c r="N243" s="58"/>
+      <c r="O243" s="58"/>
+      <c r="P243" s="58"/>
+      <c r="Q243" s="58"/>
+      <c r="R243" s="58"/>
+      <c r="S243" s="58"/>
+      <c r="T243" s="58"/>
       <c r="V243" s="30"/>
       <c r="AA243" s="30"/>
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="19:27">
-      <c r="S244" s="67"/>
+      <c r="S244" s="65"/>
       <c r="V244" s="30"/>
       <c r="AA244" s="30"/>
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H245" s="61"/>
-      <c r="I245" s="61"/>
-      <c r="J245" s="61"/>
-      <c r="K245" s="61"/>
-      <c r="L245" s="61"/>
-      <c r="M245" s="61"/>
-      <c r="N245" s="61"/>
-      <c r="O245" s="61"/>
-      <c r="P245" s="61"/>
-      <c r="Q245" s="61"/>
-      <c r="R245" s="61"/>
-      <c r="S245" s="61"/>
-      <c r="T245" s="56"/>
+      <c r="H245" s="59"/>
+      <c r="I245" s="59"/>
+      <c r="J245" s="59"/>
+      <c r="K245" s="59"/>
+      <c r="L245" s="59"/>
+      <c r="M245" s="59"/>
+      <c r="N245" s="59"/>
+      <c r="O245" s="59"/>
+      <c r="P245" s="59"/>
+      <c r="Q245" s="59"/>
+      <c r="R245" s="59"/>
+      <c r="S245" s="59"/>
+      <c r="T245" s="54"/>
       <c r="V245" s="30"/>
       <c r="AA245" s="30"/>
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H246" s="62"/>
-      <c r="I246" s="62"/>
-      <c r="J246" s="62"/>
-      <c r="K246" s="62"/>
-      <c r="L246" s="62"/>
-      <c r="M246" s="62"/>
-      <c r="N246" s="62"/>
-      <c r="O246" s="62"/>
-      <c r="P246" s="62"/>
-      <c r="Q246" s="62"/>
-      <c r="R246" s="62"/>
-      <c r="S246" s="62"/>
-      <c r="T246" s="56"/>
+      <c r="H246" s="60"/>
+      <c r="I246" s="60"/>
+      <c r="J246" s="60"/>
+      <c r="K246" s="60"/>
+      <c r="L246" s="60"/>
+      <c r="M246" s="60"/>
+      <c r="N246" s="60"/>
+      <c r="O246" s="60"/>
+      <c r="P246" s="60"/>
+      <c r="Q246" s="60"/>
+      <c r="R246" s="60"/>
+      <c r="S246" s="60"/>
+      <c r="T246" s="54"/>
       <c r="V246" s="30"/>
       <c r="AA246" s="30"/>
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H247" s="51"/>
-      <c r="I247" s="51"/>
-      <c r="J247" s="51"/>
-      <c r="K247" s="51"/>
-      <c r="L247" s="51"/>
-      <c r="M247" s="51"/>
-      <c r="N247" s="51"/>
-      <c r="O247" s="51"/>
-      <c r="P247" s="51"/>
-      <c r="Q247" s="51"/>
-      <c r="R247" s="51"/>
-      <c r="S247" s="51"/>
-      <c r="T247" s="56"/>
+      <c r="H247" s="49"/>
+      <c r="I247" s="49"/>
+      <c r="J247" s="49"/>
+      <c r="K247" s="49"/>
+      <c r="L247" s="49"/>
+      <c r="M247" s="49"/>
+      <c r="N247" s="49"/>
+      <c r="O247" s="49"/>
+      <c r="P247" s="49"/>
+      <c r="Q247" s="49"/>
+      <c r="R247" s="49"/>
+      <c r="S247" s="49"/>
+      <c r="T247" s="54"/>
       <c r="V247" s="30"/>
       <c r="AA247" s="30"/>
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H248" s="51"/>
-      <c r="I248" s="51"/>
-      <c r="J248" s="51"/>
-      <c r="K248" s="51"/>
-      <c r="L248" s="51"/>
-      <c r="M248" s="51"/>
-      <c r="N248" s="51"/>
-      <c r="O248" s="51"/>
-      <c r="P248" s="51"/>
-      <c r="Q248" s="51"/>
-      <c r="R248" s="51"/>
-      <c r="S248" s="51"/>
-      <c r="T248" s="56"/>
+      <c r="H248" s="49"/>
+      <c r="I248" s="49"/>
+      <c r="J248" s="49"/>
+      <c r="K248" s="49"/>
+      <c r="L248" s="49"/>
+      <c r="M248" s="49"/>
+      <c r="N248" s="49"/>
+      <c r="O248" s="49"/>
+      <c r="P248" s="49"/>
+      <c r="Q248" s="49"/>
+      <c r="R248" s="49"/>
+      <c r="S248" s="49"/>
+      <c r="T248" s="54"/>
       <c r="V248" s="31"/>
       <c r="AA248" s="31"/>
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H249" s="51"/>
-      <c r="I249" s="51"/>
-      <c r="J249" s="51"/>
-      <c r="K249" s="51"/>
-      <c r="L249" s="51"/>
-      <c r="M249" s="51"/>
-      <c r="N249" s="51"/>
-      <c r="O249" s="51"/>
-      <c r="P249" s="51"/>
-      <c r="Q249" s="51"/>
-      <c r="R249" s="51"/>
-      <c r="S249" s="51"/>
-      <c r="T249" s="56"/>
+      <c r="H249" s="49"/>
+      <c r="I249" s="49"/>
+      <c r="J249" s="49"/>
+      <c r="K249" s="49"/>
+      <c r="L249" s="49"/>
+      <c r="M249" s="49"/>
+      <c r="N249" s="49"/>
+      <c r="O249" s="49"/>
+      <c r="P249" s="49"/>
+      <c r="Q249" s="49"/>
+      <c r="R249" s="49"/>
+      <c r="S249" s="49"/>
+      <c r="T249" s="54"/>
       <c r="V249" s="30"/>
       <c r="AA249" s="30"/>
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H250" s="51"/>
-      <c r="I250" s="51"/>
-      <c r="J250" s="51"/>
-      <c r="K250" s="51"/>
-      <c r="L250" s="51"/>
-      <c r="M250" s="51"/>
-      <c r="N250" s="51"/>
-      <c r="O250" s="51"/>
-      <c r="P250" s="51"/>
-      <c r="Q250" s="51"/>
-      <c r="R250" s="51"/>
-      <c r="S250" s="51"/>
-      <c r="T250" s="56"/>
+      <c r="H250" s="49"/>
+      <c r="I250" s="49"/>
+      <c r="J250" s="49"/>
+      <c r="K250" s="49"/>
+      <c r="L250" s="49"/>
+      <c r="M250" s="49"/>
+      <c r="N250" s="49"/>
+      <c r="O250" s="49"/>
+      <c r="P250" s="49"/>
+      <c r="Q250" s="49"/>
+      <c r="R250" s="49"/>
+      <c r="S250" s="49"/>
+      <c r="T250" s="54"/>
       <c r="V250" s="30"/>
       <c r="AA250" s="30"/>
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H251" s="51"/>
-      <c r="I251" s="51"/>
-      <c r="J251" s="51"/>
-      <c r="K251" s="51"/>
-      <c r="L251" s="51"/>
-      <c r="M251" s="51"/>
-      <c r="N251" s="51"/>
-      <c r="O251" s="51"/>
-      <c r="P251" s="51"/>
-      <c r="Q251" s="51"/>
-      <c r="R251" s="51"/>
-      <c r="S251" s="51"/>
-      <c r="T251" s="56"/>
+      <c r="H251" s="49"/>
+      <c r="I251" s="49"/>
+      <c r="J251" s="49"/>
+      <c r="K251" s="49"/>
+      <c r="L251" s="49"/>
+      <c r="M251" s="49"/>
+      <c r="N251" s="49"/>
+      <c r="O251" s="49"/>
+      <c r="P251" s="49"/>
+      <c r="Q251" s="49"/>
+      <c r="R251" s="49"/>
+      <c r="S251" s="49"/>
+      <c r="T251" s="54"/>
       <c r="V251" s="30"/>
       <c r="AA251" s="30"/>
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H252" s="51"/>
-      <c r="I252" s="51"/>
-      <c r="J252" s="51"/>
-      <c r="K252" s="51"/>
-      <c r="L252" s="51"/>
-      <c r="M252" s="51"/>
-      <c r="N252" s="51"/>
-      <c r="O252" s="51"/>
-      <c r="P252" s="51"/>
-      <c r="Q252" s="51"/>
-      <c r="R252" s="51"/>
-      <c r="S252" s="51"/>
-      <c r="T252" s="56"/>
+      <c r="H252" s="49"/>
+      <c r="I252" s="49"/>
+      <c r="J252" s="49"/>
+      <c r="K252" s="49"/>
+      <c r="L252" s="49"/>
+      <c r="M252" s="49"/>
+      <c r="N252" s="49"/>
+      <c r="O252" s="49"/>
+      <c r="P252" s="49"/>
+      <c r="Q252" s="49"/>
+      <c r="R252" s="49"/>
+      <c r="S252" s="49"/>
+      <c r="T252" s="54"/>
       <c r="V252" s="30"/>
       <c r="AA252" s="30"/>
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H253" s="51"/>
-      <c r="I253" s="51"/>
-      <c r="J253" s="51"/>
-      <c r="K253" s="51"/>
-      <c r="L253" s="51"/>
-      <c r="M253" s="51"/>
-      <c r="N253" s="51"/>
-      <c r="O253" s="51"/>
-      <c r="P253" s="51"/>
-      <c r="Q253" s="51"/>
-      <c r="R253" s="51"/>
-      <c r="S253" s="51"/>
-      <c r="T253" s="56"/>
+      <c r="H253" s="49"/>
+      <c r="I253" s="49"/>
+      <c r="J253" s="49"/>
+      <c r="K253" s="49"/>
+      <c r="L253" s="49"/>
+      <c r="M253" s="49"/>
+      <c r="N253" s="49"/>
+      <c r="O253" s="49"/>
+      <c r="P253" s="49"/>
+      <c r="Q253" s="49"/>
+      <c r="R253" s="49"/>
+      <c r="S253" s="49"/>
+      <c r="T253" s="54"/>
       <c r="V253" s="30"/>
       <c r="AA253" s="30"/>
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="8:27">
-      <c r="H254" s="51"/>
-      <c r="I254" s="51"/>
-      <c r="J254" s="51"/>
-      <c r="K254" s="51"/>
-      <c r="L254" s="51"/>
-      <c r="M254" s="51"/>
-      <c r="N254" s="51"/>
-      <c r="O254" s="51"/>
-      <c r="P254" s="51"/>
-      <c r="Q254" s="51"/>
-      <c r="R254" s="51"/>
-      <c r="S254" s="51"/>
-      <c r="T254" s="56"/>
+      <c r="H254" s="49"/>
+      <c r="I254" s="49"/>
+      <c r="J254" s="49"/>
+      <c r="K254" s="49"/>
+      <c r="L254" s="49"/>
+      <c r="M254" s="49"/>
+      <c r="N254" s="49"/>
+      <c r="O254" s="49"/>
+      <c r="P254" s="49"/>
+      <c r="Q254" s="49"/>
+      <c r="R254" s="49"/>
+      <c r="S254" s="49"/>
+      <c r="T254" s="54"/>
       <c r="V254" s="31"/>
       <c r="AA254" s="31"/>
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="7:27">
-      <c r="G255" s="56"/>
-      <c r="H255" s="56"/>
-      <c r="I255" s="56"/>
-      <c r="J255" s="56"/>
-      <c r="K255" s="56"/>
-      <c r="L255" s="66"/>
-      <c r="M255" s="56"/>
-      <c r="N255" s="56"/>
-      <c r="O255" s="56"/>
-      <c r="P255" s="56"/>
-      <c r="Q255" s="66"/>
-      <c r="R255" s="56"/>
-      <c r="S255" s="56"/>
+      <c r="G255" s="54"/>
+      <c r="H255" s="54"/>
+      <c r="I255" s="54"/>
+      <c r="J255" s="54"/>
+      <c r="K255" s="54"/>
+      <c r="L255" s="64"/>
+      <c r="M255" s="54"/>
+      <c r="N255" s="54"/>
+      <c r="O255" s="54"/>
+      <c r="P255" s="54"/>
+      <c r="Q255" s="64"/>
+      <c r="R255" s="54"/>
+      <c r="S255" s="54"/>
       <c r="V255" s="30"/>
       <c r="AA255" s="30"/>
     </row>
@@ -8604,46 +8598,46 @@
     <row r="299" ht="15.75" customHeight="1"/>
     <row r="300" ht="15.75" customHeight="1"/>
     <row r="301" ht="15.75" customHeight="1" spans="12:30">
-      <c r="L301" s="45"/>
-      <c r="M301" s="46"/>
-      <c r="N301" s="46"/>
-      <c r="O301" s="46"/>
-      <c r="P301" s="46"/>
-      <c r="Q301" s="46"/>
-      <c r="R301" s="46"/>
-      <c r="S301" s="46"/>
-      <c r="T301" s="46"/>
-      <c r="U301" s="46"/>
-      <c r="V301" s="46"/>
-      <c r="W301" s="46"/>
-      <c r="X301" s="46"/>
-      <c r="Y301" s="46"/>
-      <c r="Z301" s="46"/>
-      <c r="AA301" s="46"/>
-      <c r="AB301" s="46"/>
-      <c r="AC301" s="46"/>
-      <c r="AD301" s="46"/>
+      <c r="L301" s="44"/>
+      <c r="M301" s="45"/>
+      <c r="N301" s="45"/>
+      <c r="O301" s="45"/>
+      <c r="P301" s="45"/>
+      <c r="Q301" s="45"/>
+      <c r="R301" s="45"/>
+      <c r="S301" s="45"/>
+      <c r="T301" s="45"/>
+      <c r="U301" s="45"/>
+      <c r="V301" s="45"/>
+      <c r="W301" s="45"/>
+      <c r="X301" s="45"/>
+      <c r="Y301" s="45"/>
+      <c r="Z301" s="45"/>
+      <c r="AA301" s="45"/>
+      <c r="AB301" s="45"/>
+      <c r="AC301" s="45"/>
+      <c r="AD301" s="45"/>
     </row>
     <row r="302" ht="15.75" customHeight="1" spans="12:30">
-      <c r="L302" s="46"/>
-      <c r="M302" s="46"/>
-      <c r="N302" s="46"/>
-      <c r="O302" s="46"/>
-      <c r="P302" s="46"/>
-      <c r="Q302" s="46"/>
-      <c r="R302" s="46"/>
-      <c r="S302" s="46"/>
-      <c r="T302" s="46"/>
-      <c r="U302" s="46"/>
-      <c r="V302" s="46"/>
-      <c r="W302" s="46"/>
-      <c r="X302" s="46"/>
-      <c r="Y302" s="46"/>
-      <c r="Z302" s="46"/>
-      <c r="AA302" s="46"/>
-      <c r="AB302" s="46"/>
-      <c r="AC302" s="46"/>
-      <c r="AD302" s="46"/>
+      <c r="L302" s="45"/>
+      <c r="M302" s="45"/>
+      <c r="N302" s="45"/>
+      <c r="O302" s="45"/>
+      <c r="P302" s="45"/>
+      <c r="Q302" s="45"/>
+      <c r="R302" s="45"/>
+      <c r="S302" s="45"/>
+      <c r="T302" s="45"/>
+      <c r="U302" s="45"/>
+      <c r="V302" s="45"/>
+      <c r="W302" s="45"/>
+      <c r="X302" s="45"/>
+      <c r="Y302" s="45"/>
+      <c r="Z302" s="45"/>
+      <c r="AA302" s="45"/>
+      <c r="AB302" s="45"/>
+      <c r="AC302" s="45"/>
+      <c r="AD302" s="45"/>
     </row>
     <row r="303" ht="15.75" customHeight="1"/>
     <row r="304" ht="15.75" customHeight="1"/>
@@ -9052,46 +9046,46 @@
     <row r="394" ht="15.75" customHeight="1"/>
     <row r="395" ht="15.75" customHeight="1"/>
     <row r="396" ht="15.75" customHeight="1" spans="12:30">
-      <c r="L396" s="45"/>
-      <c r="M396" s="46"/>
-      <c r="N396" s="46"/>
-      <c r="O396" s="46"/>
-      <c r="P396" s="46"/>
-      <c r="Q396" s="46"/>
-      <c r="R396" s="46"/>
-      <c r="S396" s="46"/>
-      <c r="T396" s="46"/>
-      <c r="U396" s="46"/>
-      <c r="V396" s="46"/>
-      <c r="W396" s="46"/>
-      <c r="X396" s="46"/>
-      <c r="Y396" s="46"/>
-      <c r="Z396" s="46"/>
-      <c r="AA396" s="46"/>
-      <c r="AB396" s="46"/>
-      <c r="AC396" s="46"/>
-      <c r="AD396" s="46"/>
+      <c r="L396" s="44"/>
+      <c r="M396" s="45"/>
+      <c r="N396" s="45"/>
+      <c r="O396" s="45"/>
+      <c r="P396" s="45"/>
+      <c r="Q396" s="45"/>
+      <c r="R396" s="45"/>
+      <c r="S396" s="45"/>
+      <c r="T396" s="45"/>
+      <c r="U396" s="45"/>
+      <c r="V396" s="45"/>
+      <c r="W396" s="45"/>
+      <c r="X396" s="45"/>
+      <c r="Y396" s="45"/>
+      <c r="Z396" s="45"/>
+      <c r="AA396" s="45"/>
+      <c r="AB396" s="45"/>
+      <c r="AC396" s="45"/>
+      <c r="AD396" s="45"/>
     </row>
     <row r="397" ht="15.75" customHeight="1" spans="12:30">
-      <c r="L397" s="46"/>
-      <c r="M397" s="46"/>
-      <c r="N397" s="46"/>
-      <c r="O397" s="46"/>
-      <c r="P397" s="46"/>
-      <c r="Q397" s="46"/>
-      <c r="R397" s="46"/>
-      <c r="S397" s="46"/>
-      <c r="T397" s="46"/>
-      <c r="U397" s="46"/>
-      <c r="V397" s="46"/>
-      <c r="W397" s="46"/>
-      <c r="X397" s="46"/>
-      <c r="Y397" s="46"/>
-      <c r="Z397" s="46"/>
-      <c r="AA397" s="46"/>
-      <c r="AB397" s="46"/>
-      <c r="AC397" s="46"/>
-      <c r="AD397" s="46"/>
+      <c r="L397" s="45"/>
+      <c r="M397" s="45"/>
+      <c r="N397" s="45"/>
+      <c r="O397" s="45"/>
+      <c r="P397" s="45"/>
+      <c r="Q397" s="45"/>
+      <c r="R397" s="45"/>
+      <c r="S397" s="45"/>
+      <c r="T397" s="45"/>
+      <c r="U397" s="45"/>
+      <c r="V397" s="45"/>
+      <c r="W397" s="45"/>
+      <c r="X397" s="45"/>
+      <c r="Y397" s="45"/>
+      <c r="Z397" s="45"/>
+      <c r="AA397" s="45"/>
+      <c r="AB397" s="45"/>
+      <c r="AC397" s="45"/>
+      <c r="AD397" s="45"/>
     </row>
     <row r="398" ht="15.75" customHeight="1"/>
     <row r="399" ht="15.75" customHeight="1"/>
